--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N2">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O2">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P2">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q2">
-        <v>2.47022863092</v>
+        <v>17.33995774632822</v>
       </c>
       <c r="R2">
-        <v>22.23205767828</v>
+        <v>156.059619716954</v>
       </c>
       <c r="S2">
-        <v>0.0001014916165528891</v>
+        <v>0.001252909609395893</v>
       </c>
       <c r="T2">
-        <v>0.0001014916165528891</v>
+        <v>0.001252909609395892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.941443</v>
       </c>
       <c r="O3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P3">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q3">
-        <v>46.231739202897</v>
+        <v>123.2256838497746</v>
       </c>
       <c r="R3">
-        <v>416.085652826073</v>
+        <v>1109.031154647971</v>
       </c>
       <c r="S3">
-        <v>0.001899473550351522</v>
+        <v>0.00890374969065051</v>
       </c>
       <c r="T3">
-        <v>0.001899473550351522</v>
+        <v>0.008903749690650506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N4">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P4">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q4">
-        <v>3.165152800653</v>
+        <v>10.28711183249689</v>
       </c>
       <c r="R4">
-        <v>28.486375205877</v>
+        <v>92.58400649247203</v>
       </c>
       <c r="S4">
-        <v>0.0001300432155769879</v>
+        <v>0.0007433017690365932</v>
       </c>
       <c r="T4">
-        <v>0.0001300432155769879</v>
+        <v>0.0007433017690365931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N5">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O5">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P5">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q5">
-        <v>125.315265025881</v>
+        <v>118.6979686519338</v>
       </c>
       <c r="R5">
-        <v>1127.837385232929</v>
+        <v>1068.281717867404</v>
       </c>
       <c r="S5">
-        <v>0.005148692986160388</v>
+        <v>0.008576596766579297</v>
       </c>
       <c r="T5">
-        <v>0.005148692986160389</v>
+        <v>0.008576596766579295</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N6">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P6">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q6">
-        <v>3.340024325082</v>
+        <v>13.00330675764322</v>
       </c>
       <c r="R6">
-        <v>30.060218925738</v>
+        <v>117.029760818789</v>
       </c>
       <c r="S6">
-        <v>0.0001372279730853474</v>
+        <v>0.0009395621505492772</v>
       </c>
       <c r="T6">
-        <v>0.0001372279730853475</v>
+        <v>0.0009395621505492769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N7">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O7">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P7">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q7">
-        <v>7.680661290927</v>
+        <v>7.716571706884889</v>
       </c>
       <c r="R7">
-        <v>69.12595161834301</v>
+        <v>69.44914536196401</v>
       </c>
       <c r="S7">
-        <v>0.0003155670373398025</v>
+        <v>0.0005575657671481813</v>
       </c>
       <c r="T7">
-        <v>0.0003155670373398026</v>
+        <v>0.0005575657671481811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N8">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O8">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P8">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q8">
-        <v>296.9954150006355</v>
+        <v>782.1672417715444</v>
       </c>
       <c r="R8">
-        <v>2672.95873500572</v>
+        <v>7039.505175943899</v>
       </c>
       <c r="S8">
-        <v>0.01220232993817439</v>
+        <v>0.05651598854546013</v>
       </c>
       <c r="T8">
-        <v>0.0122023299381744</v>
+        <v>0.05651598854546011</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.941443</v>
       </c>
       <c r="O9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P9">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q9">
         <v>5558.438761051759</v>
@@ -1013,10 +1013,10 @@
         <v>50025.94884946583</v>
       </c>
       <c r="S9">
-        <v>0.2283735717042827</v>
+        <v>0.401628506761214</v>
       </c>
       <c r="T9">
-        <v>0.2283735717042828</v>
+        <v>0.4016285067612139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N10">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P10">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q10">
-        <v>380.5460991763582</v>
+        <v>464.028921265585</v>
       </c>
       <c r="R10">
-        <v>3424.914892587223</v>
+        <v>4176.260291390266</v>
       </c>
       <c r="S10">
-        <v>0.01563508668585075</v>
+        <v>0.03352870306817048</v>
       </c>
       <c r="T10">
-        <v>0.01563508668585076</v>
+        <v>0.03352870306817048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N11">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O11">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P11">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q11">
-        <v>15066.64552277286</v>
+        <v>5354.203516673951</v>
       </c>
       <c r="R11">
-        <v>135599.8097049558</v>
+        <v>48187.83165006556</v>
       </c>
       <c r="S11">
-        <v>0.6190269965278725</v>
+        <v>0.3868713600598352</v>
       </c>
       <c r="T11">
-        <v>0.6190269965278726</v>
+        <v>0.3868713600598351</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N12">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P12">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q12">
-        <v>401.5708902906291</v>
+        <v>586.5504823786993</v>
       </c>
       <c r="R12">
-        <v>3614.138012615662</v>
+        <v>5278.954341408294</v>
       </c>
       <c r="S12">
-        <v>0.01649890957704583</v>
+        <v>0.04238157592533259</v>
       </c>
       <c r="T12">
-        <v>0.01649890957704584</v>
+        <v>0.04238157592533258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N13">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O13">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P13">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q13">
-        <v>923.4453681838397</v>
+        <v>348.0775268431409</v>
       </c>
       <c r="R13">
-        <v>8311.008313654558</v>
+        <v>3132.697741588268</v>
       </c>
       <c r="S13">
-        <v>0.03794060276127167</v>
+        <v>0.0251505617589452</v>
       </c>
       <c r="T13">
-        <v>0.03794060276127169</v>
+        <v>0.02515056175894519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N14">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O14">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P14">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q14">
-        <v>0.2248313414311111</v>
+        <v>0.06983545956333334</v>
       </c>
       <c r="R14">
-        <v>2.02348207288</v>
+        <v>0.6285191360700001</v>
       </c>
       <c r="S14">
-        <v>9.237402565891077E-06</v>
+        <v>5.046005281183943E-06</v>
       </c>
       <c r="T14">
-        <v>9.237402565891077E-06</v>
+        <v>5.046005281183941E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.941443</v>
       </c>
       <c r="O15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P15">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q15">
-        <v>4.207846922173111</v>
+        <v>0.4962827699783334</v>
       </c>
       <c r="R15">
-        <v>37.87062229955799</v>
+        <v>4.466544929805</v>
       </c>
       <c r="S15">
-        <v>0.0001728832631088869</v>
+        <v>3.585922529800469E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001728832631088869</v>
+        <v>3.585922529800468E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N16">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P16">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q16">
-        <v>0.2880808444602222</v>
+        <v>0.04143061897333335</v>
       </c>
       <c r="R16">
-        <v>2.592727600142</v>
+        <v>0.3728755707600001</v>
       </c>
       <c r="S16">
-        <v>1.183606660380265E-05</v>
+        <v>2.993595566627085E-06</v>
       </c>
       <c r="T16">
-        <v>1.183606660380265E-05</v>
+        <v>2.993595566627084E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N17">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O17">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P17">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q17">
-        <v>11.40574551881489</v>
+        <v>0.4780477156466667</v>
       </c>
       <c r="R17">
-        <v>102.651709669334</v>
+        <v>4.30242944082</v>
       </c>
       <c r="S17">
-        <v>0.000468615550886991</v>
+        <v>3.454163991894924E-05</v>
       </c>
       <c r="T17">
-        <v>0.000468615550886991</v>
+        <v>3.454163991894923E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N18">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P18">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q18">
-        <v>0.3039970227942222</v>
+        <v>0.05236990288833333</v>
       </c>
       <c r="R18">
-        <v>2.735973205148</v>
+        <v>0.471329125995</v>
       </c>
       <c r="S18">
-        <v>1.248999743767049E-05</v>
+        <v>3.784020441792405E-06</v>
       </c>
       <c r="T18">
-        <v>1.248999743767049E-05</v>
+        <v>3.784020441792404E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N19">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O19">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P19">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q19">
-        <v>0.6990662157753332</v>
+        <v>0.03107794951333333</v>
       </c>
       <c r="R19">
-        <v>6.291595941978</v>
+        <v>0.27970154562</v>
       </c>
       <c r="S19">
-        <v>2.87217787975056E-05</v>
+        <v>2.245556889769292E-06</v>
       </c>
       <c r="T19">
-        <v>2.87217787975056E-05</v>
+        <v>2.245556889769291E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N20">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O20">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P20">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q20">
-        <v>19.14973264164444</v>
+        <v>26.65334927235689</v>
       </c>
       <c r="R20">
-        <v>172.3475937748</v>
+        <v>239.880143451212</v>
       </c>
       <c r="S20">
-        <v>0.000786784388306713</v>
+        <v>0.001925854602096265</v>
       </c>
       <c r="T20">
-        <v>0.000786784388306713</v>
+        <v>0.001925854602096264</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.941443</v>
       </c>
       <c r="O21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P21">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q21">
-        <v>358.3981799142144</v>
+        <v>189.4109108581042</v>
       </c>
       <c r="R21">
-        <v>3225.58361922793</v>
+        <v>1704.698197722938</v>
       </c>
       <c r="S21">
-        <v>0.01472511904113089</v>
+        <v>0.01368600511087172</v>
       </c>
       <c r="T21">
-        <v>0.0147251190411309</v>
+        <v>0.01368600511087171</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N22">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P22">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q22">
-        <v>24.53693117461889</v>
+        <v>15.81237905457956</v>
       </c>
       <c r="R22">
-        <v>220.83238057157</v>
+        <v>142.3114114912161</v>
       </c>
       <c r="S22">
-        <v>0.00100812239765498</v>
+        <v>0.001142533445278331</v>
       </c>
       <c r="T22">
-        <v>0.001008122397654981</v>
+        <v>0.001142533445278331</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N23">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O23">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P23">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q23">
-        <v>971.4703291527654</v>
+        <v>182.4513336584791</v>
       </c>
       <c r="R23">
-        <v>8743.23296237489</v>
+        <v>1642.062002926312</v>
       </c>
       <c r="S23">
-        <v>0.03991375247810999</v>
+        <v>0.01318313646042248</v>
       </c>
       <c r="T23">
-        <v>0.03991375247810999</v>
+        <v>0.01318313646042248</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N24">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P24">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q24">
-        <v>25.89257206450889</v>
+        <v>19.98745797292689</v>
       </c>
       <c r="R24">
-        <v>233.03314858058</v>
+        <v>179.887121756342</v>
       </c>
       <c r="S24">
-        <v>0.001063820151157615</v>
+        <v>0.001444206412035777</v>
       </c>
       <c r="T24">
-        <v>0.001063820151157615</v>
+        <v>0.001444206412035776</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N25">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O25">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P25">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q25">
-        <v>59.54210407540333</v>
+        <v>11.86118697044356</v>
       </c>
       <c r="R25">
-        <v>535.87893667863</v>
+        <v>106.750682733992</v>
       </c>
       <c r="S25">
-        <v>0.002446342140129115</v>
+        <v>0.0008570375632695498</v>
       </c>
       <c r="T25">
-        <v>0.002446342140129116</v>
+        <v>0.0008570375632695493</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N26">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O26">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P26">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q26">
-        <v>0.1026328421688889</v>
+        <v>0.4211482795386667</v>
       </c>
       <c r="R26">
-        <v>0.9236955795199999</v>
+        <v>3.790334515848</v>
       </c>
       <c r="S26">
-        <v>4.216764769364133E-06</v>
+        <v>3.043033519076922E-05</v>
       </c>
       <c r="T26">
-        <v>4.216764769364134E-06</v>
+        <v>3.043033519076921E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H27">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.941443</v>
       </c>
       <c r="O27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P27">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q27">
-        <v>1.920832239336889</v>
+        <v>2.992872618694666</v>
       </c>
       <c r="R27">
-        <v>17.287490154032</v>
+        <v>26.935853568252</v>
       </c>
       <c r="S27">
-        <v>7.891916021740914E-05</v>
+        <v>0.0002162519031774703</v>
       </c>
       <c r="T27">
-        <v>7.891916021740916E-05</v>
+        <v>0.0002162519031774702</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H28">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N28">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P28">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q28">
-        <v>0.1315054905297778</v>
+        <v>0.2498506347626667</v>
       </c>
       <c r="R28">
-        <v>1.183549414768</v>
+        <v>2.248655712864</v>
       </c>
       <c r="S28">
-        <v>5.403024097602255E-06</v>
+        <v>1.80531155719855E-05</v>
       </c>
       <c r="T28">
-        <v>5.403024097602257E-06</v>
+        <v>1.805311557198549E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H29">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N29">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O29">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P29">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q29">
-        <v>5.20658762341511</v>
+        <v>2.882904676805333</v>
       </c>
       <c r="R29">
-        <v>46.85928861073599</v>
+        <v>25.946142091248</v>
       </c>
       <c r="S29">
-        <v>0.000213917443920104</v>
+        <v>0.0002083061000138029</v>
       </c>
       <c r="T29">
-        <v>0.000213917443920104</v>
+        <v>0.0002083061000138028</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H30">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N30">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P30">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q30">
-        <v>0.1387710372657777</v>
+        <v>0.3158208543186666</v>
       </c>
       <c r="R30">
-        <v>1.248939335392</v>
+        <v>2.842387688868</v>
       </c>
       <c r="S30">
-        <v>5.70153577143974E-06</v>
+        <v>2.28198354928095E-05</v>
       </c>
       <c r="T30">
-        <v>5.70153577143974E-06</v>
+        <v>2.281983549280949E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H31">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N31">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O31">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P31">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q31">
-        <v>0.3191154406346666</v>
+        <v>0.1874180402186666</v>
       </c>
       <c r="R31">
-        <v>2.872038965712</v>
+        <v>1.686762361968</v>
       </c>
       <c r="S31">
-        <v>1.311115154751387E-05</v>
+        <v>1.354200898291327E-05</v>
       </c>
       <c r="T31">
-        <v>1.311115154751387E-05</v>
+        <v>1.354200898291327E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H32">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.2304933333333333</v>
+        <v>0.6070273333333334</v>
       </c>
       <c r="N32">
-        <v>0.69148</v>
+        <v>1.821082</v>
       </c>
       <c r="O32">
-        <v>0.01312533644731377</v>
+        <v>0.0597372166308533</v>
       </c>
       <c r="P32">
-        <v>0.01312533644731377</v>
+        <v>0.05973721663085329</v>
       </c>
       <c r="Q32">
-        <v>0.5178498329866665</v>
+        <v>0.09670572681577778</v>
       </c>
       <c r="R32">
-        <v>4.660648496879999</v>
+        <v>0.870351541342</v>
       </c>
       <c r="S32">
-        <v>2.127633694452249E-05</v>
+        <v>6.987533429068403E-06</v>
       </c>
       <c r="T32">
-        <v>2.127633694452249E-05</v>
+        <v>6.9875334290684E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H33">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>12.941443</v>
       </c>
       <c r="O33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="P33">
-        <v>0.2456481655127172</v>
+        <v>0.4245200293050175</v>
       </c>
       <c r="Q33">
-        <v>9.691855290328665</v>
+        <v>0.6872351993814444</v>
       </c>
       <c r="R33">
-        <v>87.22669761295799</v>
+        <v>6.185116794433</v>
       </c>
       <c r="S33">
-        <v>0.0003981987936257476</v>
+        <v>4.9656613805904E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003981987936257476</v>
+        <v>4.965661380590399E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H34">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2953356666666667</v>
+        <v>0.3601253333333334</v>
       </c>
       <c r="N34">
-        <v>0.886007</v>
+        <v>1.080376</v>
       </c>
       <c r="O34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="P34">
-        <v>0.01681775318111172</v>
+        <v>0.03543973042113138</v>
       </c>
       <c r="Q34">
-        <v>0.6635312329713332</v>
+        <v>0.05737168689511112</v>
       </c>
       <c r="R34">
-        <v>5.971781096741999</v>
+        <v>0.5163451820560001</v>
       </c>
       <c r="S34">
-        <v>2.726179132759521E-05</v>
+        <v>4.145427507362768E-06</v>
       </c>
       <c r="T34">
-        <v>2.726179132759522E-05</v>
+        <v>4.145427507362767E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H35">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.69297966666667</v>
+        <v>4.155310666666667</v>
       </c>
       <c r="N35">
-        <v>35.078939</v>
+        <v>12.465932</v>
       </c>
       <c r="O35">
-        <v>0.6658513284401523</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="P35">
-        <v>0.6658513284401524</v>
+        <v>0.4089217730939553</v>
       </c>
       <c r="Q35">
-        <v>26.27064080305933</v>
+        <v>0.6619839274102223</v>
       </c>
       <c r="R35">
-        <v>236.4357672275339</v>
+        <v>5.957855346692</v>
       </c>
       <c r="S35">
-        <v>0.001079353453202335</v>
+        <v>4.783206718560368E-05</v>
       </c>
       <c r="T35">
-        <v>0.001079353453202335</v>
+        <v>4.783206718560367E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H36">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.3116526666666666</v>
+        <v>0.4552123333333333</v>
       </c>
       <c r="N36">
-        <v>0.934958</v>
+        <v>1.365637</v>
       </c>
       <c r="O36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436354</v>
       </c>
       <c r="P36">
-        <v>0.0177469172125117</v>
+        <v>0.04479718832436353</v>
       </c>
       <c r="Q36">
-        <v>0.7001906695053332</v>
+        <v>0.07252002856077777</v>
       </c>
       <c r="R36">
-        <v>6.301716025547999</v>
+        <v>0.6526802570469999</v>
       </c>
       <c r="S36">
-        <v>2.876797801379195E-05</v>
+        <v>5.239980511296408E-06</v>
       </c>
       <c r="T36">
-        <v>2.876797801379195E-05</v>
+        <v>5.239980511296406E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H37">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.7166709999999999</v>
+        <v>0.2701373333333333</v>
       </c>
       <c r="N37">
-        <v>2.150013</v>
+        <v>0.810412</v>
       </c>
       <c r="O37">
-        <v>0.04081049920619313</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="P37">
-        <v>0.04081049920619314</v>
+        <v>0.02658406222467911</v>
       </c>
       <c r="Q37">
-        <v>1.610146169042</v>
+        <v>0.04303566861911111</v>
       </c>
       <c r="R37">
-        <v>14.491315521378</v>
+        <v>0.387321017572</v>
       </c>
       <c r="S37">
-        <v>6.615433710751377E-05</v>
+        <v>3.109569443505664E-06</v>
       </c>
       <c r="T37">
-        <v>6.61543371075138E-05</v>
+        <v>3.109569443505663E-06</v>
       </c>
     </row>
   </sheetData>
